--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42979,6 +42979,41 @@
         <v>1025500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>439300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43014,6 +43014,41 @@
         <v>439300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>298200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43049,6 +43049,41 @@
         <v>298200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1306000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43084,6 +43084,41 @@
         <v>1306000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1140600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43119,6 +43119,41 @@
         <v>1140600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>457300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43154,6 +43154,41 @@
         <v>457300</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>959600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43189,6 +43189,41 @@
         <v>959600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>243500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43224,6 +43224,41 @@
         <v>243500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>695000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43259,6 +43259,41 @@
         <v>695000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>180500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43294,6 +43294,41 @@
         <v>180500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1015000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,41 @@
         <v>1015000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>991200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,6 +43364,43 @@
         <v>991200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43401,6 +43401,76 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>424500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>640600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,76 @@
         <v>640600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1405400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1149300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,41 @@
         <v>1149300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>5226300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,41 @@
         <v>5226300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>785000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,41 @@
         <v>785000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1222500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,41 @@
         <v>1222500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>9681100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,76 @@
         <v>9681100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2203900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>667500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,41 @@
         <v>667500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1168900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43786,6 +43786,41 @@
         <v>1168900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>7173200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1559"/>
+  <dimension ref="A1:I1560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54951,6 +54951,41 @@
         <v>7173200</v>
       </c>
     </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1560" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>3263400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1560"/>
+  <dimension ref="A1:I1561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54986,6 +54986,41 @@
         <v>3263400</v>
       </c>
     </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1561" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>2914300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1561"/>
+  <dimension ref="A1:I1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55021,6 +55021,41 @@
         <v>2914300</v>
       </c>
     </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1562" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>1553600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1562"/>
+  <dimension ref="A1:I1563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55056,6 +55056,41 @@
         <v>1553600</v>
       </c>
     </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1563" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>5665600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1563"/>
+  <dimension ref="A1:I1564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55091,6 +55091,41 @@
         <v>5665600</v>
       </c>
     </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1564" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>1106900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1564"/>
+  <dimension ref="A1:I1565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55126,6 +55126,41 @@
         <v>1106900</v>
       </c>
     </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1565" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>618200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1565"/>
+  <dimension ref="A1:I1566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55161,6 +55161,41 @@
         <v>618200</v>
       </c>
     </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1566" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>345600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1566"/>
+  <dimension ref="A1:I1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55196,6 +55196,41 @@
         <v>345600</v>
       </c>
     </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1567" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>983000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1567"/>
+  <dimension ref="A1:I1568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55231,6 +55231,41 @@
         <v>983000</v>
       </c>
     </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1568" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>123000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1568"/>
+  <dimension ref="A1:I1569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55266,6 +55266,41 @@
         <v>123000</v>
       </c>
     </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1569" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>323100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1569"/>
+  <dimension ref="A1:I1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55301,6 +55301,41 @@
         <v>323100</v>
       </c>
     </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1570" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>275800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1570"/>
+  <dimension ref="A1:I1571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55336,6 +55336,41 @@
         <v>275800</v>
       </c>
     </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1571" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>264300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1571"/>
+  <dimension ref="A1:I1572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55371,6 +55371,41 @@
         <v>264300</v>
       </c>
     </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>1463900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1572"/>
+  <dimension ref="A1:I1573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55406,6 +55406,41 @@
         <v>1463900</v>
       </c>
     </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>18265000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1573"/>
+  <dimension ref="A1:I1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55441,6 +55441,41 @@
         <v>18265000</v>
       </c>
     </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1574" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>11139900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1708"/>
+  <dimension ref="A1:I1709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60166,6 +60166,41 @@
         <v>11139900</v>
       </c>
     </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1709" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>1618400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1709"/>
+  <dimension ref="A1:I1710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60201,6 +60201,41 @@
         <v>1618400</v>
       </c>
     </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1710" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>2527400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1710"/>
+  <dimension ref="A1:I1711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60236,6 +60236,41 @@
         <v>2527400</v>
       </c>
     </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1711" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>2119100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1711"/>
+  <dimension ref="A1:I1712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60271,6 +60271,41 @@
         <v>2119100</v>
       </c>
     </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1712" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>1325000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1712"/>
+  <dimension ref="A1:I1713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60306,6 +60306,41 @@
         <v>1325000</v>
       </c>
     </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1713" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>1170200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1713"/>
+  <dimension ref="A1:I1714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60341,6 +60341,41 @@
         <v>1170200</v>
       </c>
     </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1714" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>880100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1714"/>
+  <dimension ref="A1:I1715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60376,6 +60376,41 @@
         <v>880100</v>
       </c>
     </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1715" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>612900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1715"/>
+  <dimension ref="A1:I1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60411,6 +60411,41 @@
         <v>612900</v>
       </c>
     </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1716" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>837100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1716"/>
+  <dimension ref="A1:I1717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60446,6 +60446,41 @@
         <v>837100</v>
       </c>
     </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1717" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>1092500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1717"/>
+  <dimension ref="A1:I1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60481,6 +60481,41 @@
         <v>1092500</v>
       </c>
     </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1718" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>25416400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1718"/>
+  <dimension ref="A1:I1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60516,6 +60516,76 @@
         <v>25416400</v>
       </c>
     </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1719" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>14386300</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1720" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>4441000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1720"/>
+  <dimension ref="A1:I1721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60586,6 +60586,41 @@
         <v>4441000</v>
       </c>
     </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1721" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>916000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1721"/>
+  <dimension ref="A1:I1724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60621,6 +60621,111 @@
         <v>916000</v>
       </c>
     </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1722" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>3585100</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1723" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>1094800</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1724" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>271500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1724"/>
+  <dimension ref="A1:I1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60726,6 +60726,41 @@
         <v>271500</v>
       </c>
     </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1725" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>749400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1725"/>
+  <dimension ref="A1:I1726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60761,6 +60761,41 @@
         <v>749400</v>
       </c>
     </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1726" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>451000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7251.xlsx
+++ b/data/7251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1726"/>
+  <dimension ref="A1:I1729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60796,6 +60796,111 @@
         <v>451000</v>
       </c>
     </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1727" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>958300</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1728" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>382000</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>BARAKAH</t>
+        </is>
+      </c>
+      <c r="E1729" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>427800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
